--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:01:37+00:00</t>
+    <t>2024-09-18T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:11:02+00:00</t>
+    <t>2024-10-30T10:16:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1713,7 +1713,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:56:03+00:00</t>
+    <t>2024-10-30T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:25:18+00:00</t>
+    <t>2024-10-30T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:56:40+00:00</t>
+    <t>2024-10-30T13:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:57:24+00:00</t>
+    <t>2024-10-30T16:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-waist-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
